--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1181942.685722954</v>
+        <v>1179282.842197877</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11189511.94688903</v>
+        <v>11189511.94688904</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>167.206568237317</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>118.4960408938903</v>
@@ -713,19 +713,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>353.0487519536576</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.787448639045128</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.102408160180125</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>145.5725749888462</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>365.2764909341818</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.23105181328322</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>64.60559526151324</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.2436403474272</v>
       </c>
       <c r="H8" t="n">
-        <v>35.17372346169565</v>
+        <v>308.1458232469789</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.54004601234806</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>209.7046517124901</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1009251344199</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>58.42317773182558</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.7067558814507</v>
       </c>
       <c r="H9" t="n">
-        <v>96.42777606792038</v>
+        <v>96.42777606792033</v>
       </c>
       <c r="I9" t="n">
-        <v>33.04322907152305</v>
+        <v>33.0432290715229</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2810481729025</v>
+        <v>141.2810481729024</v>
       </c>
       <c r="T9" t="n">
         <v>193.5674321249209</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>26.88433424406981</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>222.082528811566</v>
       </c>
       <c r="U10" t="n">
-        <v>283.0734015059542</v>
+        <v>286.2441817741499</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>322.769035475738</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>270.1915102239647</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114111</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035167</v>
+        <v>9.753166794035295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034033</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.42248776591639</v>
+        <v>79.00824149146347</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2511428064762</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>359.551749875468</v>
+        <v>359.5517498754684</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.3725990111934</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.12210510147827</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833734</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.67756722603039</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>83.06560892427864</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>7.776890242894297e-13</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>38.61213096654879</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>4.019807611471797</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408059</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819364</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>4.019807611472078</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419834062</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,10 +2956,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F31" t="n">
-        <v>53.30076123484834</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977245</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>41.02686156550161</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983388</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053457</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>26.1362719570585</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740354</v>
       </c>
       <c r="D46" t="n">
-        <v>4.019807611471663</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1169.36310016472</v>
+        <v>596.427172652278</v>
       </c>
       <c r="C2" t="n">
-        <v>1169.36310016472</v>
+        <v>596.427172652278</v>
       </c>
       <c r="D2" t="n">
-        <v>1169.36310016472</v>
+        <v>596.427172652278</v>
       </c>
       <c r="E2" t="n">
-        <v>1169.36310016472</v>
+        <v>596.427172652278</v>
       </c>
       <c r="F2" t="n">
-        <v>758.377195375112</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G2" t="n">
-        <v>341.2894136115395</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H2" t="n">
         <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J2" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>423.5656054180344</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L2" t="n">
-        <v>976.3788636642336</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M2" t="n">
-        <v>1163.078276489641</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N2" t="n">
-        <v>1790.385944549488</v>
+        <v>2011.628270704848</v>
       </c>
       <c r="O2" t="n">
-        <v>1960.554969866447</v>
+        <v>2181.797296021808</v>
       </c>
       <c r="P2" t="n">
         <v>2389.870016205742</v>
@@ -4361,19 +4361,19 @@
         <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2264.031077745182</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V2" t="n">
-        <v>1932.968190401611</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W2" t="n">
-        <v>1932.968190401611</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X2" t="n">
-        <v>1559.502432140531</v>
+        <v>953.0420736155686</v>
       </c>
       <c r="Y2" t="n">
-        <v>1169.36310016472</v>
+        <v>596.427172652278</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J3" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K3" t="n">
-        <v>500.7885757023182</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L3" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M3" t="n">
-        <v>1232.27200203395</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N3" t="n">
-        <v>1430.928743686615</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O3" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P3" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S3" t="n">
         <v>2464.467288245464</v>
@@ -4440,19 +4440,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.57550729897547</v>
+        <v>225.462808163525</v>
       </c>
       <c r="C4" t="n">
-        <v>70.57550729897547</v>
+        <v>56.52662523561804</v>
       </c>
       <c r="D4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K4" t="n">
         <v>153.7488491352227</v>
@@ -4510,28 +4510,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.481653362412</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S4" t="n">
-        <v>840.0413686148175</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T4" t="n">
-        <v>614.4121719271825</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U4" t="n">
-        <v>325.2599955048623</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="V4" t="n">
-        <v>70.57550729897547</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="W4" t="n">
-        <v>70.57550729897547</v>
+        <v>407.1112729937647</v>
       </c>
       <c r="X4" t="n">
-        <v>70.57550729897547</v>
+        <v>407.1112729937647</v>
       </c>
       <c r="Y4" t="n">
-        <v>70.57550729897547</v>
+        <v>407.1112729937647</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>933.9176408752171</v>
+        <v>1134.97086444447</v>
       </c>
       <c r="C5" t="n">
-        <v>564.9551239348054</v>
+        <v>1134.97086444447</v>
       </c>
       <c r="D5" t="n">
-        <v>206.6894253280549</v>
+        <v>776.7051658377195</v>
       </c>
       <c r="E5" t="n">
-        <v>206.6894253280549</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="F5" t="n">
-        <v>199.7439245788515</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J5" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>411.5206624279944</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>964.3339206741936</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M5" t="n">
-        <v>1596.051731657505</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N5" t="n">
-        <v>1790.385944549488</v>
+        <v>1844.222621684495</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2391.383826451573</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.354273725794</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.291386382223</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.522731112109</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="X5" t="n">
-        <v>1324.056972851029</v>
+        <v>1525.110196420282</v>
       </c>
       <c r="Y5" t="n">
-        <v>933.9176408752171</v>
+        <v>1134.97086444447</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1622.195698117913</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N6" t="n">
-        <v>1820.852439770578</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>535.2288800639797</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="C7" t="n">
-        <v>535.2288800639797</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="D7" t="n">
-        <v>533.9853933838956</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="E7" t="n">
-        <v>386.0722998015025</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="F7" t="n">
-        <v>239.1823523035921</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897547</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897547</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K7" t="n">
         <v>153.7488491352227</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>407.376266608405</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.635600998958</v>
+        <v>407.376266608405</v>
       </c>
       <c r="W7" t="n">
-        <v>763.218430961997</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="X7" t="n">
-        <v>535.2288800639797</v>
+        <v>117.9590965714444</v>
       </c>
       <c r="Y7" t="n">
-        <v>535.2288800639797</v>
+        <v>117.9590965714444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2028.640023594953</v>
+        <v>1624.841290288512</v>
       </c>
       <c r="C8" t="n">
-        <v>1659.677506654541</v>
+        <v>1624.841290288512</v>
       </c>
       <c r="D8" t="n">
-        <v>1301.411808047791</v>
+        <v>1266.575591681762</v>
       </c>
       <c r="E8" t="n">
-        <v>915.6235554495465</v>
+        <v>880.7873390835176</v>
       </c>
       <c r="F8" t="n">
-        <v>504.637650659939</v>
+        <v>873.8418383343142</v>
       </c>
       <c r="G8" t="n">
-        <v>88.22993313728523</v>
+        <v>457.4341208116604</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>146.1757134914796</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>297.9118008339145</v>
+        <v>130.5061518135622</v>
       </c>
       <c r="K8" t="n">
-        <v>606.8745119374349</v>
+        <v>586.546352587126</v>
       </c>
       <c r="L8" t="n">
-        <v>851.3867526472761</v>
+        <v>831.0585932969684</v>
       </c>
       <c r="M8" t="n">
-        <v>1155.123170346067</v>
+        <v>1134.795010995761</v>
       </c>
       <c r="N8" t="n">
-        <v>1468.388169208706</v>
+        <v>1786.96889029847</v>
       </c>
       <c r="O8" t="n">
-        <v>1750.860163237718</v>
+        <v>2069.440884327484</v>
       </c>
       <c r="P8" t="n">
-        <v>2276.023195151741</v>
+        <v>2276.02319515174</v>
       </c>
       <c r="Q8" t="n">
         <v>2593.177001405962</v>
@@ -4832,22 +4832,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2423.223096462976</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.408678865067</v>
+        <v>2423.223096462976</v>
       </c>
       <c r="V8" t="n">
-        <v>2381.408678865067</v>
+        <v>2423.223096462976</v>
       </c>
       <c r="W8" t="n">
-        <v>2028.640023594953</v>
+        <v>2070.454441192862</v>
       </c>
       <c r="X8" t="n">
-        <v>2028.640023594953</v>
+        <v>2011.441130352634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2028.640023594953</v>
+        <v>2011.441130352634</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>626.3292567817127</v>
       </c>
       <c r="E9" t="n">
-        <v>467.0918017762573</v>
+        <v>467.0918017762572</v>
       </c>
       <c r="F9" t="n">
-        <v>320.5572438031422</v>
+        <v>320.5572438031421</v>
       </c>
       <c r="G9" t="n">
-        <v>183.4797126097577</v>
+        <v>183.4797126097575</v>
       </c>
       <c r="H9" t="n">
-        <v>86.07791860175735</v>
+        <v>86.0779186017572</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>205.0534608927867</v>
+        <v>80.22333590578238</v>
       </c>
       <c r="K9" t="n">
-        <v>592.0690635359288</v>
+        <v>467.2389385489252</v>
       </c>
       <c r="L9" t="n">
-        <v>1013.894864932035</v>
+        <v>681.9016314308404</v>
       </c>
       <c r="M9" t="n">
-        <v>1283.752970712386</v>
+        <v>951.7597372111921</v>
       </c>
       <c r="N9" t="n">
-        <v>1575.162062480635</v>
+        <v>1243.168828979442</v>
       </c>
       <c r="O9" t="n">
-        <v>1819.524654862715</v>
+        <v>1819.524654862713</v>
       </c>
       <c r="P9" t="n">
-        <v>2311.592253346289</v>
+        <v>2311.592253346288</v>
       </c>
       <c r="Q9" t="n">
         <v>2587.82864230215</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.70091953961285</v>
+        <v>79.85681271544095</v>
       </c>
       <c r="C10" t="n">
-        <v>52.70091953961285</v>
+        <v>79.85681271544095</v>
       </c>
       <c r="D10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>56.32012312205261</v>
+        <v>56.32012312205286</v>
       </c>
       <c r="K10" t="n">
-        <v>192.1044230969986</v>
+        <v>192.1044230969993</v>
       </c>
       <c r="L10" t="n">
-        <v>421.3880127696216</v>
+        <v>421.3880127696228</v>
       </c>
       <c r="M10" t="n">
-        <v>673.5245332424506</v>
+        <v>673.5245332424524</v>
       </c>
       <c r="N10" t="n">
-        <v>925.100427233122</v>
+        <v>925.1004272331243</v>
       </c>
       <c r="O10" t="n">
-        <v>1141.455188557395</v>
+        <v>1141.455188557398</v>
       </c>
       <c r="P10" t="n">
-        <v>1303.063381081417</v>
+        <v>1303.06338108142</v>
       </c>
       <c r="Q10" t="n">
-        <v>1331.517436617901</v>
+        <v>1331.517436617904</v>
       </c>
       <c r="R10" t="n">
-        <v>1331.517436617901</v>
+        <v>1331.517436617904</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.517436617901</v>
+        <v>1331.517436617904</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.517436617901</v>
+        <v>1107.191649939555</v>
       </c>
       <c r="U10" t="n">
-        <v>1045.584707824008</v>
+        <v>818.0561127939491</v>
       </c>
       <c r="V10" t="n">
-        <v>790.9002196181209</v>
+        <v>818.0561127939491</v>
       </c>
       <c r="W10" t="n">
-        <v>501.4830495811603</v>
+        <v>528.6389427569884</v>
       </c>
       <c r="X10" t="n">
-        <v>273.4934986831429</v>
+        <v>300.6493918589711</v>
       </c>
       <c r="Y10" t="n">
-        <v>52.70091953961285</v>
+        <v>79.85681271544095</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2224.625962016628</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="C11" t="n">
-        <v>1855.663445076217</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.397746469466</v>
+        <v>1176.993134082597</v>
       </c>
       <c r="E11" t="n">
-        <v>1111.609493871222</v>
+        <v>1176.993134082597</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078501</v>
+        <v>766.0072292929895</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>351.4317836226361</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765428</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882246</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234596</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234596</v>
+        <v>3826.588132455657</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234596</v>
+        <v>3622.786021971437</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.062594867205</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523634</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.23105225352</v>
+        <v>2685.463762990361</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.76529399244</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.625962016628</v>
+        <v>1921.858672753469</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503049</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792131</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376509</v>
+        <v>477.1621322376497</v>
       </c>
       <c r="L12" t="n">
-        <v>671.0277318723392</v>
+        <v>900.4499396649588</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.341506116229</v>
+        <v>977.3905023848084</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467296</v>
+        <v>1518.698809735875</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333046</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.9816331090734</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="C13" t="n">
-        <v>317.0454501811664</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>317.0454501811664</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>169.1323565987732</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="F13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600402</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457708</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888921</v>
+        <v>717.500225288891</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2130.229762979473</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1942.429099335356</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1721.615041885402</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1432.524335325691</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1177.839847119804</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>888.4226770828432</v>
+        <v>834.2956531176412</v>
       </c>
       <c r="X13" t="n">
-        <v>888.4226770828432</v>
+        <v>606.3061022196239</v>
       </c>
       <c r="Y13" t="n">
-        <v>667.630097939313</v>
+        <v>408.0726246373246</v>
       </c>
     </row>
     <row r="14">
@@ -5294,10 +5294,10 @@
         <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>301.0525042748304</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>791.7848371185818</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1383.80319137071</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061237</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>779.332461693788</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113949</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2360.516429368669</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>2071.440215683396</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1816.755727477509</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1527.338557440549</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1299.349006542531</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232835</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232835</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232835</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,13 +5674,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.076652038816</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.22181769372</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2243.22181769372</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1954.146591037918</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1699.462102832031</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.055381897053</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.2628027535233</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413022</v>
+        <v>513.8536007400689</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121621</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133953</v>
+        <v>261.0127623330927</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330927</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138388</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.4004511715419</v>
+        <v>695.5020655703087</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
         <v>1344.266747951538</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>265.0731740618517</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>97.87707477673126</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>97.87707477673126</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400737</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121668</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998311</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998311</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998311</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851667</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572598</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449242</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>229.7425191625312</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154064</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,7 +6710,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797742</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7020,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908933</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038343</v>
@@ -7105,10 +7105,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188011</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908942</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908942</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908942</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908943</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.101820392571</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490408</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1368.15426255076</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098238</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819169</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871881</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041576</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876685</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597616</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614382</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179082</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>269.7649306166119</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>98.32161104485655</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>48.10560617263482</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>96.1206918578458</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8216,25 +8216,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5983215357635</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>98.9330356140897</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>441.9679254493647</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>20.72114122105287</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0447662673736</v>
+        <v>291.6078871462042</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>342.3322024647164</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>209.255665165851</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>335.3467005062529</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>84.10701026597343</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.37720645671257</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238013</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114094</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034043</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.58575372554694</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.33351054561862</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.29152613728957</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597352</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>199.4625482506165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788653</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.69767948409117</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393372</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.4141550350958</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>77.24602870709374</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409392824</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F31" t="n">
-        <v>92.12028678808289</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7126101431588</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>176.3785887617867</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194176</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891654</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459244</v>
       </c>
       <c r="D46" t="n">
-        <v>144.5956654067407</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>997842.3392227722</v>
+        <v>997842.3392227719</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871530.380668598</v>
+        <v>871530.3806685971</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208681</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.750320868</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719627</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876637</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918679</v>
+        <v>461540.8686918676</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
@@ -26338,10 +26338,10 @@
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="L2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
@@ -26350,10 +26350,10 @@
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.4137109849</v>
+        <v>792647.413710985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143427.3523991857</v>
+        <v>143427.3523991875</v>
       </c>
       <c r="E3" t="n">
-        <v>458840.653472933</v>
+        <v>458840.6534729291</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051371</v>
+        <v>166521.3471051392</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557874</v>
@@ -26390,16 +26390,16 @@
         <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80399.89743135557</v>
+        <v>80399.897431355</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848892</v>
+        <v>43782.40655848945</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224584</v>
@@ -26421,43 +26421,43 @@
         <v>183955.1029744945</v>
       </c>
       <c r="D4" t="n">
-        <v>156827.9060218337</v>
+        <v>156827.9060218333</v>
       </c>
       <c r="E4" t="n">
-        <v>6188.359574389009</v>
+        <v>6188.359574389007</v>
       </c>
       <c r="F4" t="n">
         <v>6280.9479104697</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695062</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695027</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695042</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695025</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747558</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747558</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>90269.01801629359</v>
+        <v>90269.01801629364</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621472</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-591121.5768509922</v>
+        <v>-591121.5768509924</v>
       </c>
       <c r="C6" t="n">
         <v>201525.8368599926</v>
       </c>
       <c r="D6" t="n">
-        <v>81574.74123464996</v>
+        <v>81574.74123464851</v>
       </c>
       <c r="E6" t="n">
-        <v>-127315.4936218055</v>
+        <v>-127525.4578656467</v>
       </c>
       <c r="F6" t="n">
-        <v>188596.4451624226</v>
+        <v>188550.5401668546</v>
       </c>
       <c r="G6" t="n">
-        <v>345532.0482305727</v>
+        <v>345497.310305137</v>
       </c>
       <c r="H6" t="n">
-        <v>356699.2844661516</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="I6" t="n">
-        <v>356699.2844661514</v>
+        <v>356664.5465407157</v>
       </c>
       <c r="J6" t="n">
-        <v>184338.2920658707</v>
+        <v>184303.5541404349</v>
       </c>
       <c r="K6" t="n">
-        <v>356699.2844661514</v>
+        <v>356664.5465407157</v>
       </c>
       <c r="L6" t="n">
-        <v>356699.2844661516</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="M6" t="n">
-        <v>276299.387034796</v>
+        <v>276264.6491093609</v>
       </c>
       <c r="N6" t="n">
-        <v>312916.8779076627</v>
+        <v>312882.1399822264</v>
       </c>
       <c r="O6" t="n">
-        <v>353675.9864889268</v>
+        <v>353641.2485634912</v>
       </c>
       <c r="P6" t="n">
-        <v>356699.2844661514</v>
+        <v>356664.5465407158</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>760.9504204673317</v>
+        <v>760.9504204673337</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808649</v>
+        <v>981.3883278086469</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>167.4743201292666</v>
+        <v>167.4743201292687</v>
       </c>
       <c r="E3" t="n">
-        <v>451.2198470272252</v>
+        <v>451.2198470272212</v>
       </c>
       <c r="F3" t="n">
-        <v>145.870781221829</v>
+        <v>145.8707812218308</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>322.6268335634884</v>
+        <v>322.6268335634861</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634884</v>
+        <v>322.6268335634861</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634884</v>
+        <v>322.6268335634861</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>147.8343158378985</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>33.18918670239594</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>144.8280243791672</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>124.0707735076112</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>267.3443289570906</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>4.454609744287211</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>147.3844212049291</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>58.66096261790373</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>272.9720997852833</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.54004601234838</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.3108928771023</v>
+        <v>139.3108928771021</v>
       </c>
       <c r="T8" t="n">
-        <v>209.7046517124902</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1009251344199</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>311.3079229466434</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>121.7311387741426</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>166.6187736822062</v>
       </c>
       <c r="H10" t="n">
-        <v>150.0270165858486</v>
+        <v>150.0270165858485</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1845078632266</v>
+        <v>114.1845078632265</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5940343340314</v>
+        <v>115.5940343340313</v>
       </c>
       <c r="S10" t="n">
-        <v>200.1027954790071</v>
+        <v>200.102795479007</v>
       </c>
       <c r="T10" t="n">
-        <v>222.082528811566</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3.170780268195642</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.655920176650397e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -31157,7 +31157,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
         <v>0.08398246702897151</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.059097167707864</v>
+        <v>3.059097167707872</v>
       </c>
       <c r="H8" t="n">
-        <v>31.32897886878817</v>
+        <v>31.32897886878825</v>
       </c>
       <c r="I8" t="n">
-        <v>117.9358435580575</v>
+        <v>117.9358435580579</v>
       </c>
       <c r="J8" t="n">
-        <v>259.6370482377455</v>
+        <v>259.6370482377462</v>
       </c>
       <c r="K8" t="n">
-        <v>389.1286313468195</v>
+        <v>389.1286313468206</v>
       </c>
       <c r="L8" t="n">
-        <v>482.7484762930591</v>
+        <v>482.7484762930604</v>
       </c>
       <c r="M8" t="n">
-        <v>537.1506955492838</v>
+        <v>537.1506955492853</v>
       </c>
       <c r="N8" t="n">
-        <v>545.8423553770339</v>
+        <v>545.8423553770353</v>
       </c>
       <c r="O8" t="n">
-        <v>515.4234579156388</v>
+        <v>515.4234579156401</v>
       </c>
       <c r="P8" t="n">
-        <v>439.9019965878508</v>
+        <v>439.901996587852</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.3480792693128</v>
+        <v>330.3480792693137</v>
       </c>
       <c r="R8" t="n">
-        <v>192.1610124610293</v>
+        <v>192.1610124610298</v>
       </c>
       <c r="S8" t="n">
-        <v>69.70917670914302</v>
+        <v>69.70917670914321</v>
       </c>
       <c r="T8" t="n">
-        <v>13.39119785164118</v>
+        <v>13.39119785164122</v>
       </c>
       <c r="U8" t="n">
-        <v>0.244727773416629</v>
+        <v>0.2447277734166297</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.636761281759921</v>
+        <v>1.636761281759926</v>
       </c>
       <c r="H9" t="n">
-        <v>15.80766816857608</v>
+        <v>15.80766816857613</v>
       </c>
       <c r="I9" t="n">
-        <v>56.35340377989203</v>
+        <v>56.35340377989218</v>
       </c>
       <c r="J9" t="n">
-        <v>154.6380472385547</v>
+        <v>154.6380472385551</v>
       </c>
       <c r="K9" t="n">
-        <v>264.3010531164693</v>
+        <v>264.3010531164701</v>
       </c>
       <c r="L9" t="n">
-        <v>355.3853826908987</v>
+        <v>355.3853826908996</v>
       </c>
       <c r="M9" t="n">
-        <v>414.7179791546957</v>
+        <v>414.7179791546968</v>
       </c>
       <c r="N9" t="n">
-        <v>425.6943300310595</v>
+        <v>425.6943300310606</v>
       </c>
       <c r="O9" t="n">
-        <v>389.4271458404843</v>
+        <v>389.4271458404854</v>
       </c>
       <c r="P9" t="n">
-        <v>312.5496170406292</v>
+        <v>312.54961704063</v>
       </c>
       <c r="Q9" t="n">
-        <v>208.9311418611436</v>
+        <v>208.9311418611442</v>
       </c>
       <c r="R9" t="n">
-        <v>101.6227750201467</v>
+        <v>101.622775020147</v>
       </c>
       <c r="S9" t="n">
-        <v>30.40212293093536</v>
+        <v>30.40212293093544</v>
       </c>
       <c r="T9" t="n">
-        <v>6.597296569900732</v>
+        <v>6.59729656990075</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1076816632736791</v>
+        <v>0.1076816632736794</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.372205676252565</v>
+        <v>1.372205676252569</v>
       </c>
       <c r="H10" t="n">
-        <v>12.200155921591</v>
+        <v>12.20015592159103</v>
       </c>
       <c r="I10" t="n">
-        <v>41.2659670640317</v>
+        <v>41.26596706403181</v>
       </c>
       <c r="J10" t="n">
-        <v>97.01494131105636</v>
+        <v>97.01494131105662</v>
       </c>
       <c r="K10" t="n">
-        <v>159.4253503864344</v>
+        <v>159.4253503864348</v>
       </c>
       <c r="L10" t="n">
-        <v>204.009560267586</v>
+        <v>204.0095602675865</v>
       </c>
       <c r="M10" t="n">
-        <v>215.099477051118</v>
+        <v>215.0994770511186</v>
       </c>
       <c r="N10" t="n">
-        <v>209.9848922578132</v>
+        <v>209.9848922578137</v>
       </c>
       <c r="O10" t="n">
-        <v>193.9550350397718</v>
+        <v>193.9550350397723</v>
       </c>
       <c r="P10" t="n">
-        <v>165.9620392442193</v>
+        <v>165.9620392442197</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.9035134905671</v>
+        <v>114.9035134905674</v>
       </c>
       <c r="R10" t="n">
-        <v>61.69935704313805</v>
+        <v>61.69935704313822</v>
       </c>
       <c r="S10" t="n">
-        <v>23.91380255796515</v>
+        <v>23.91380255796522</v>
       </c>
       <c r="T10" t="n">
-        <v>5.863060616715504</v>
+        <v>5.86306061671552</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0748475823410491</v>
+        <v>0.0748475823410493</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485652</v>
+        <v>4.873046301485645</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508994</v>
+        <v>49.90608543508987</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307176</v>
       </c>
       <c r="K11" t="n">
-        <v>619.869763472606</v>
+        <v>619.8697634726051</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216977</v>
+        <v>769.0032542216965</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857431</v>
+        <v>855.6642913857418</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898392</v>
+        <v>869.509834189838</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294413</v>
+        <v>821.05348002944</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615141</v>
+        <v>700.750149461513</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188521</v>
+        <v>0.3898437041188515</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596483</v>
+        <v>89.7692132059647</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783043</v>
+        <v>246.3335823783039</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202557</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>334.3782177947109</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845334</v>
+        <v>219.8517740430785</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147144</v>
+        <v>678.1177801147134</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431813</v>
+        <v>620.3452877431804</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205473</v>
+        <v>497.8817840205466</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071843</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697582</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691795</v>
+        <v>65.73539745691785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.9596068619739</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263711</v>
+        <v>342.6467528263706</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973091</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570616</v>
+        <v>98.28514988570602</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929614</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282691</v>
+        <v>9.339672552826896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>199.0463877591104</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q30" t="n">
-        <v>364.3208035245835</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507785</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,22 +33737,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403551</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>353.1620564495335</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
         <v>558.3972305517163</v>
@@ -34714,7 +34714,7 @@
         <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
-        <v>433.6515619588832</v>
+        <v>210.1744648322571</v>
       </c>
       <c r="Q2" t="n">
         <v>247.6524856312129</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>332.7559639452625</v>
@@ -34784,13 +34784,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>229.4160469348619</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>200.663375406732</v>
+        <v>296.7840672645778</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P3" t="n">
         <v>428.2502711927643</v>
@@ -34936,25 +34936,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>340.9954473686851</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>210.7858894014902</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
@@ -35021,16 +35021,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>623.2783662115918</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>221.3845166277849</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>247.687758883133</v>
+        <v>78.59114371105994</v>
       </c>
       <c r="K8" t="n">
-        <v>312.0835465692126</v>
+        <v>460.6466674480442</v>
       </c>
       <c r="L8" t="n">
-        <v>246.9820613230719</v>
+        <v>246.9820613230732</v>
       </c>
       <c r="M8" t="n">
-        <v>306.8044623220111</v>
+        <v>306.8044623220126</v>
       </c>
       <c r="N8" t="n">
-        <v>316.429291780443</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O8" t="n">
-        <v>285.325246493952</v>
+        <v>285.3252464939534</v>
       </c>
       <c r="P8" t="n">
-        <v>530.4677090040639</v>
+        <v>208.6690008325824</v>
       </c>
       <c r="Q8" t="n">
-        <v>320.357380054768</v>
+        <v>320.3573800547689</v>
       </c>
       <c r="R8" t="n">
-        <v>42.29189451987958</v>
+        <v>42.29189451988012</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>153.8914559122968</v>
+        <v>27.8004205718884</v>
       </c>
       <c r="K9" t="n">
-        <v>390.924851154689</v>
+        <v>390.9248511546897</v>
       </c>
       <c r="L9" t="n">
-        <v>426.0866680768755</v>
+        <v>216.8310029110255</v>
       </c>
       <c r="M9" t="n">
-        <v>272.5839452326774</v>
+        <v>272.5839452326785</v>
       </c>
       <c r="N9" t="n">
-        <v>294.3526179477262</v>
+        <v>294.3526179477274</v>
       </c>
       <c r="O9" t="n">
-        <v>246.8309013960399</v>
+        <v>582.1776019022939</v>
       </c>
       <c r="P9" t="n">
-        <v>497.0379782662361</v>
+        <v>497.0379782662369</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.0266555109712</v>
+        <v>279.0266555109718</v>
       </c>
       <c r="R9" t="n">
-        <v>1.464940867503586</v>
+        <v>1.464940867503856</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.655761194383587</v>
+        <v>3.655761194383842</v>
       </c>
       <c r="K10" t="n">
-        <v>137.1558585605515</v>
+        <v>137.1558585605519</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5995855279021</v>
+        <v>231.5995855279026</v>
       </c>
       <c r="M10" t="n">
-        <v>254.6833540129586</v>
+        <v>254.6833540129591</v>
       </c>
       <c r="N10" t="n">
-        <v>254.1170646370418</v>
+        <v>254.1170646370423</v>
       </c>
       <c r="O10" t="n">
-        <v>218.5401629538114</v>
+        <v>218.5401629538119</v>
       </c>
       <c r="P10" t="n">
-        <v>163.2405985091128</v>
+        <v>163.2405985091132</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.74147023887269</v>
+        <v>28.74147023887301</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276254</v>
+        <v>399.7799124276245</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584704</v>
+        <v>625.3180581584691</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077545</v>
+        <v>590.9552686077533</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062445</v>
+        <v>469.5171537062435</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156621</v>
+        <v>90.52095692156576</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116376</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458967</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>195.8238380148367</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>77.7177401210602</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313811</v>
+        <v>546.7760680313801</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987369</v>
+        <v>477.749043298736</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062171</v>
+        <v>363.9073766062164</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936556</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670185</v>
+        <v>61.18259316701824</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882117</v>
+        <v>382.2306297882112</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190458</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998369</v>
+        <v>96.87566713998341</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20494878475142</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010457</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36434,19 +36434,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36674,16 +36674,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q30" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867659</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959107</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
